--- a/biology/Zoologie/Craniophora/Craniophora.xlsx
+++ b/biology/Zoologie/Craniophora/Craniophora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Craniophora est un genre de papillons de nuit de la famille des Noctuidae. Il comprend une trentaine d'espèces originaires d'Afrique, d'Eurasie et d'Océanie.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Craniophora harmandi.
@@ -519,7 +533,7 @@
 			Craniophora oda.
 			Craniophora praeclara.
 			Craniophora fasciata.
-Selon GBIF       (24 mai 2021)[1] :
+Selon GBIF       (24 mai 2021) :
 Cranionycta jankowskii
 Cranionycta oda
 Craniophora adelphica Prout, 1927
@@ -577,9 +591,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les genres suivants sont synonymes de Craniophora selon GBIF       (24 mai 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les genres suivants sont synonymes de Craniophora selon GBIF       (24 mai 2021) :
 Bisulcia Chapman, 1890
 Cranionycta de Lattin, 1949
 Hampsonia Kozhantschikov, 1950
